--- a/nr-rm-jdv-148/ig/StructureDefinition-mesures-moment-of-measurement.xlsx
+++ b/nr-rm-jdv-148/ig/StructureDefinition-mesures-moment-of-measurement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T14:22:16+00:00</t>
+    <t>2024-12-18T14:23:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
